--- a/Administrasi/Surat Keluar Panitia.xlsx
+++ b/Administrasi/Surat Keluar Panitia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="76">
   <si>
     <t>Nomor Surat</t>
   </si>
@@ -126,9 +126,6 @@
     <t>005/A1/PAN.UO/HMJTI/II/2021</t>
   </si>
   <si>
-    <t>001/A1/PAN.IRAMA/HMJTI/II/2021</t>
-  </si>
-  <si>
     <t>III</t>
   </si>
   <si>
@@ -165,23 +162,95 @@
     <t>BEM-F</t>
   </si>
   <si>
-    <t>002/A1/PAN.IRAMA/HMJTI/II/2021</t>
-  </si>
-  <si>
-    <t>003/A1/PAN.IRAMA/HMJTI/II/2021</t>
-  </si>
-  <si>
-    <t>004/A1/PAN.IRAMA/HMJTI/II/2021</t>
-  </si>
-  <si>
-    <t>005/A1/PAN.IRAMA/HMJTI/II/2021</t>
+    <t>002/A3/PAN.UO/HMJTI/IV/2021</t>
+  </si>
+  <si>
+    <t>Tempat</t>
+  </si>
+  <si>
+    <t>Jumat, 23 April 2021</t>
+  </si>
+  <si>
+    <t>15.00 WIB-Selesai</t>
+  </si>
+  <si>
+    <t>Perizinan Tempat Minggu Ke -2</t>
+  </si>
+  <si>
+    <t>001/A2/PAN.IRAMA/HMJTI/IV/2021</t>
+  </si>
+  <si>
+    <t>002/A2/PAN.IRAMA/HMJTI/IV/2021</t>
+  </si>
+  <si>
+    <t>003/A2/PAN.IRAMA/HMJTI/IV/2021</t>
+  </si>
+  <si>
+    <t>004/A2/PAN.IRAMA/HMJTI/IV/2021</t>
+  </si>
+  <si>
+    <t>005/A2/PAN.IRAMA/HMJTI/IV/2021</t>
+  </si>
+  <si>
+    <t>3 Mei 2021</t>
+  </si>
+  <si>
+    <t>006/A1/PAN.UO/HMJTI/II/2021</t>
+  </si>
+  <si>
+    <t>007/A1/PAN.UO/HMJTI/II/2021</t>
+  </si>
+  <si>
+    <t>008/A1/PAN.UO/HMJTI/II/2021</t>
+  </si>
+  <si>
+    <t>009/A1/PAN.UO/HMJTI/II/2021</t>
+  </si>
+  <si>
+    <t>Selasa, 4 Mei 2021</t>
+  </si>
+  <si>
+    <t>15.30 WIB-Selesai</t>
+  </si>
+  <si>
+    <t>Kantin Kampus</t>
+  </si>
+  <si>
+    <t>Berbagi &amp; Bukber HMJTI</t>
+  </si>
+  <si>
+    <t>Satpam</t>
+  </si>
+  <si>
+    <t>006/A2/PAN.IRAMA/HMJTI/V/2021</t>
+  </si>
+  <si>
+    <t>007/A2/PAN.IRAMA/HMJTI/V/2021</t>
+  </si>
+  <si>
+    <t>008/A2/PAN.IRAMA/HMJTI/V/2021</t>
+  </si>
+  <si>
+    <t>009/A2/PAN.IRAMA/HMJTI/V/2021</t>
+  </si>
+  <si>
+    <t>010/A2/PAN.IRAMA/HMJTI/V/2021</t>
+  </si>
+  <si>
+    <t>011/A2/PAN.IRAMA/HMJTI/V/2021</t>
+  </si>
+  <si>
+    <t>Kantin Universitas Peradaban</t>
+  </si>
+  <si>
+    <t>Acara Puncak IRAMA TI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +263,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,10 +304,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -762,6 +846,158 @@
         <v>34</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -770,243 +1006,475 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10">
+        <v>44301</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="M2" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="10">
         <v>44301</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="10">
+        <v>44301</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="C5" s="10">
+        <v>44301</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44301</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="5">
-        <v>44301</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="F10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5">
-        <v>44301</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="F11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5">
-        <v>44301</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="5">
-        <v>44301</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>43</v>
+      <c r="C12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1017,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,6 +1584,41 @@
         <v>31</v>
       </c>
     </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5">
+        <v>44307</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Administrasi/Surat Keluar Panitia.xlsx
+++ b/Administrasi/Surat Keluar Panitia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>Nomor Surat</t>
   </si>
@@ -244,6 +244,54 @@
   </si>
   <si>
     <t>Acara Puncak IRAMA TI</t>
+  </si>
+  <si>
+    <t>28 Mei 2021</t>
+  </si>
+  <si>
+    <t>FourFeo Futsal</t>
+  </si>
+  <si>
+    <t>Minggu, 20 Mei 2021</t>
+  </si>
+  <si>
+    <t>Minggu, 20 Mei 2022</t>
+  </si>
+  <si>
+    <t>Minggu, 20 Mei 2023</t>
+  </si>
+  <si>
+    <t>Minggu, 20 Mei 2024</t>
+  </si>
+  <si>
+    <t>Minggu, 20 Mei 2025</t>
+  </si>
+  <si>
+    <t>09.00 WIB - Selesai</t>
+  </si>
+  <si>
+    <t>Soccer Futsal</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Liga Futsal</t>
+  </si>
+  <si>
+    <t>012/A2/PAN.FF/HMJTI/V/2021</t>
+  </si>
+  <si>
+    <t>013/A2/PAN.FF/HMJTI/V/2021</t>
+  </si>
+  <si>
+    <t>014/A2/PAN.FF/HMJTI/V/2021</t>
+  </si>
+  <si>
+    <t>015/A2/PAN.FF/HMJTI/V/2021</t>
+  </si>
+  <si>
+    <t>016/A2/PAN.FF/HMJTI/V/2021</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A13" sqref="A13:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,6 +1523,181 @@
       </c>
       <c r="M12" s="9" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Administrasi/Surat Keluar Panitia.xlsx
+++ b/Administrasi/Surat Keluar Panitia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="214">
   <si>
     <t>Nomor Surat</t>
   </si>
@@ -427,13 +427,247 @@
   </si>
   <si>
     <t>021/A2/PAN.WEBINAR/HMJTI/VIII/2021</t>
+  </si>
+  <si>
+    <t>022/A3/PAN.LKMM-TPD/HMJTI/IX/2021</t>
+  </si>
+  <si>
+    <t>023/A3/PAN.LKMM-TPD/HMJTI/IX/2021</t>
+  </si>
+  <si>
+    <t>024/A3/PAN.LKMM-TPD/HMJTI/IX/2021</t>
+  </si>
+  <si>
+    <t>025/A3/PAN.LKMM-TPD/HMJTI/IX/2021</t>
+  </si>
+  <si>
+    <t>016/A3/PAN.LKMM-TPD/HMJTI/IX/2021</t>
+  </si>
+  <si>
+    <t>017/A3/PAN.LKMM-TPD/HMJTI/IX/2021</t>
+  </si>
+  <si>
+    <t>018/A3/PAN.LKMM-TPD/HMJTI/IX/2021</t>
+  </si>
+  <si>
+    <t>019/A3/PAN.LKMM-TPD/HMJTI/IX/2021</t>
+  </si>
+  <si>
+    <t>020/A3/PAN.LKMM-TPD/HMJTI/IX/2021</t>
+  </si>
+  <si>
+    <t>021/A3/PAN.LKMM-TPD/HMJTI/IX/2021</t>
+  </si>
+  <si>
+    <t>LKMM-TPD</t>
+  </si>
+  <si>
+    <t>Kamis-Jumat, 14-15 September 2021</t>
+  </si>
+  <si>
+    <t>Education to Lead, Lead to Educate</t>
+  </si>
+  <si>
+    <t>03 Oktober 2021</t>
+  </si>
+  <si>
+    <t>Teguh Adi Nugroho S,Kom.</t>
+  </si>
+  <si>
+    <t>Nova Adi Saputa</t>
+  </si>
+  <si>
+    <t>Mahapala Bumi Universitas Peradaban</t>
+  </si>
+  <si>
+    <t>Orang Tua/Wali Peserta</t>
+  </si>
+  <si>
+    <t>Permohonan orang tua/wali peserta</t>
+  </si>
+  <si>
+    <t>Peminjaman alat</t>
+  </si>
+  <si>
+    <t>05 Oktober 2021</t>
+  </si>
+  <si>
+    <t>UKM Teater Universitar Peradaban</t>
+  </si>
+  <si>
+    <t>Bayu Galih Permadi</t>
+  </si>
+  <si>
+    <t>UKM Pramuka Universitas Peradaban</t>
+  </si>
+  <si>
+    <t>026/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>027/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>028/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>029/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>030/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>031/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>032/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>033/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>034/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>Perizinan Tempat</t>
+  </si>
+  <si>
+    <t>035/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>Rito Cipta Sigitta H., M. Kom</t>
+  </si>
+  <si>
+    <t>036/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>UKM PAC Universitas Peradaban</t>
+  </si>
+  <si>
+    <t>044/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>RSU Allam Medica Bumiayu</t>
+  </si>
+  <si>
+    <t>UKM Mahapala Bumi</t>
+  </si>
+  <si>
+    <t>permohonan izin</t>
+  </si>
+  <si>
+    <t>Peminjaman tempat</t>
+  </si>
+  <si>
+    <t>11 oktober 2021</t>
+  </si>
+  <si>
+    <t>011/A1/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>13 Oktober 2021</t>
+  </si>
+  <si>
+    <t>14-15 Oktober 2021</t>
+  </si>
+  <si>
+    <t>13.00 WIB - Selesai</t>
+  </si>
+  <si>
+    <t>GGLC Bantarkawung</t>
+  </si>
+  <si>
+    <t>Undangan sambutan</t>
+  </si>
+  <si>
+    <t>045/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>046/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>047/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>03 Desember 2021</t>
+  </si>
+  <si>
+    <t>BEM F</t>
+  </si>
+  <si>
+    <t>BEM U</t>
+  </si>
+  <si>
+    <t>048/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>049/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>050/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>051/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>052/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>053/A3/PAN.LKMM-TPD/HMJTI/X/2021</t>
+  </si>
+  <si>
+    <t>Pengantar LPJ</t>
+  </si>
+  <si>
+    <t>054/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>055/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>056/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>057/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>058/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>059/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>060/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>061/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>062/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>063/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>12 Desember 2021</t>
+  </si>
+  <si>
+    <t>MUBES</t>
+  </si>
+  <si>
+    <t>Jumat-sabtu, 24-25 Desember 2021</t>
+  </si>
+  <si>
+    <t>08.00 WIB-Selesai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +686,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -474,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,6 +736,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,15 +1044,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -1237,6 +1481,44 @@
         <v>130</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1245,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,6 +2325,51 @@
         <v>133</v>
       </c>
     </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2051,25 +2378,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2692,7 +3019,1290 @@
         <v>109</v>
       </c>
     </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="12">
+        <v>44468</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="12">
+        <v>44468</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="12">
+        <v>44468</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="12">
+        <v>44468</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="12">
+        <v>44468</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="12">
+        <v>44468</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="12">
+        <v>44468</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="12">
+        <v>44468</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="12">
+        <v>44468</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="12">
+        <v>44468</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Administrasi/Surat Keluar Panitia.xlsx
+++ b/Administrasi/Surat Keluar Panitia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="263">
   <si>
     <t>Nomor Surat</t>
   </si>
@@ -618,46 +618,226 @@
     <t>Pengantar LPJ</t>
   </si>
   <si>
-    <t>054/PAN.MUBES/HMJTI/XII/2021</t>
-  </si>
-  <si>
-    <t>055/PAN.MUBES/HMJTI/XII/2021</t>
-  </si>
-  <si>
-    <t>056/PAN.MUBES/HMJTI/XII/2021</t>
-  </si>
-  <si>
-    <t>057/PAN.MUBES/HMJTI/XII/2021</t>
-  </si>
-  <si>
-    <t>058/PAN.MUBES/HMJTI/XII/2021</t>
-  </si>
-  <si>
-    <t>059/PAN.MUBES/HMJTI/XII/2021</t>
-  </si>
-  <si>
-    <t>060/PAN.MUBES/HMJTI/XII/2021</t>
-  </si>
-  <si>
-    <t>061/PAN.MUBES/HMJTI/XII/2021</t>
-  </si>
-  <si>
-    <t>062/PAN.MUBES/HMJTI/XII/2021</t>
-  </si>
-  <si>
-    <t>063/PAN.MUBES/HMJTI/XII/2021</t>
-  </si>
-  <si>
-    <t>12 Desember 2021</t>
-  </si>
-  <si>
-    <t>MUBES</t>
-  </si>
-  <si>
-    <t>Jumat-sabtu, 24-25 Desember 2021</t>
-  </si>
-  <si>
-    <t>08.00 WIB-Selesai</t>
+    <t>012/A1/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>18 Desember 2021</t>
+  </si>
+  <si>
+    <t>TI Angkatan 2018(Reguler)</t>
+  </si>
+  <si>
+    <t>MUBES HMJTI</t>
+  </si>
+  <si>
+    <t>Jum’at-Sabtu,24-25 Desember 2021</t>
+  </si>
+  <si>
+    <t>07.30-Selesai</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gedung D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ruangan  302 &amp; 303</t>
+    </r>
+  </si>
+  <si>
+    <t>Undangan TI</t>
+  </si>
+  <si>
+    <t>013/A1/PAN.MUBES/HMJTI/XII/2022</t>
+  </si>
+  <si>
+    <t>TI Angkatan 2019(Reguler)</t>
+  </si>
+  <si>
+    <t>014/A1/PAN.MUBES/HMJTI/XII/2023</t>
+  </si>
+  <si>
+    <t>TI Angkatan 2020(Reguler)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gedung D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ruangan  302 &amp; 303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>015/A1/PAN.MUBES/HMJTI/XII/2024</t>
+  </si>
+  <si>
+    <t>TI Angkatan 2021(Reguler)</t>
+  </si>
+  <si>
+    <t>016/A1/PAN.MUBES/HMJTI/XII/2025</t>
+  </si>
+  <si>
+    <t>TI Angkatan 2018(Karyawan)</t>
+  </si>
+  <si>
+    <t>017/A1/PAN.MUBES/HMJTI/XII/2026</t>
+  </si>
+  <si>
+    <t>TI Angkatan 2019(Karyawan)</t>
+  </si>
+  <si>
+    <t>018/A1/PAN.MUBES/HMJTI/XII/2027</t>
+  </si>
+  <si>
+    <t>TI Angkatan 2021(Karyawan)</t>
+  </si>
+  <si>
+    <t>019/A1/PAN.MUBES/HMJTI/XII/2028</t>
+  </si>
+  <si>
+    <t>Rito Cipta Sigitta Hariono, M.Kom</t>
+  </si>
+  <si>
+    <t>020/A1/PAN.MUBES/HMJTI/XII/2029</t>
+  </si>
+  <si>
+    <t>Undangan Ketua BEM FST</t>
+  </si>
+  <si>
+    <t>021/A1/PAN.MUBES/HMJTI/XII/2030</t>
+  </si>
+  <si>
+    <t>Saktiningrum Nikmatul Khoiriyah</t>
+  </si>
+  <si>
+    <t>Undangan Ketua BEM UP</t>
+  </si>
+  <si>
+    <t>022/A1/PAN.MUBES/HMJTI/XII/2031</t>
+  </si>
+  <si>
+    <t>Khornelis Anjelina</t>
+  </si>
+  <si>
+    <t>Undangan Ketua DPM UP</t>
+  </si>
+  <si>
+    <t>023/A1/PAN.MUBES/HMJTI/XII/2032</t>
+  </si>
+  <si>
+    <t>Teguh Adi Nugroho, M.Kom</t>
+  </si>
+  <si>
+    <t>024/A1/PAN.MUBES/HMJTI/XII/2033</t>
+  </si>
+  <si>
+    <t>025/A1/PAN.MUBES/HMJTI/XII/2034</t>
+  </si>
+  <si>
+    <t>Sidik Agus Triyono</t>
+  </si>
+  <si>
+    <t>026/A1/PAN.MUBES/HMJTI/XII/2035</t>
+  </si>
+  <si>
+    <t>027/A1/PAN.MUBES/HMJTI/XII/2035</t>
+  </si>
+  <si>
+    <t>22 Desember 2021</t>
+  </si>
+  <si>
+    <t>Atik Syaiful Rohman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undangan </t>
+  </si>
+  <si>
+    <t>054/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>MUBES HMJTI 2021</t>
+  </si>
+  <si>
+    <t>Jum'at - Sabtu, 24-25 Desember 2021</t>
+  </si>
+  <si>
+    <t>08.00 WIB - Selesai</t>
+  </si>
+  <si>
+    <t>Ruangan D 302</t>
+  </si>
+  <si>
+    <t>055/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>056/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>057/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>058/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>059/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>060/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>061/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>062/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>063/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>064/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>065/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>066/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>067/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>068/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>069/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>070/A3/PAN.MUBES/HMJTI/XII/2021</t>
+  </si>
+  <si>
+    <t>071/A3/PAN.MUBES/HMJTI/XII/2021</t>
   </si>
 </sst>
 </file>
@@ -667,7 +847,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +873,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -714,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,6 +947,17 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1517,6 +1736,518 @@
       </c>
       <c r="M12" s="2" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2378,10 +3109,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4012,293 +4743,579 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>200</v>
+      <c r="A48" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>210</v>
+        <v>109</v>
+      </c>
+      <c r="C48" s="12">
+        <v>44542</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>213</v>
+        <v>244</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M48" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>201</v>
+      <c r="A49" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E49" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="12">
+        <v>44542</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>213</v>
+        <v>244</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>202</v>
+      <c r="A50" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="12">
+        <v>44542</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>213</v>
+        <v>244</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>203</v>
+      <c r="A51" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="12">
+        <v>44542</v>
+      </c>
+      <c r="E51" s="17" t="s">
         <v>118</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>213</v>
+        <v>244</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>204</v>
+      <c r="A52" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="12">
+        <v>44542</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>119</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>213</v>
+        <v>244</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M52" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>205</v>
+      <c r="A53" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E53" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="12">
+        <v>44542</v>
+      </c>
+      <c r="E53" s="17" t="s">
         <v>120</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>213</v>
+        <v>244</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>206</v>
+      <c r="A54" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="12">
+        <v>44542</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>191</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>213</v>
+        <v>244</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M54" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>207</v>
+      <c r="A55" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="12">
+        <v>44542</v>
+      </c>
+      <c r="E55" s="17" t="s">
         <v>192</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>213</v>
+        <v>244</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>208</v>
+      <c r="A56" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="12">
+        <v>44542</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>213</v>
+        <v>244</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>209</v>
+      <c r="A57" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="12">
+        <v>44542</v>
+      </c>
+      <c r="E57" s="17" t="s">
         <v>126</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>213</v>
+        <v>244</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="12">
+        <v>44559</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="12">
+        <v>44559</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="12">
+        <v>44559</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="12">
+        <v>44559</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="12">
+        <v>44559</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="12">
+        <v>44559</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="12">
+        <v>44559</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="12">
+        <v>44559</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
